--- a/src/docs/Levels.xlsx
+++ b/src/docs/Levels.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\GitRepos\CodeGarden\codegarden\src\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\apenkooi\codegarden\src\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,10 +64,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -647,10 +647,10 @@
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1327,7 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="51"/>
+      <c r="O10" s="22"/>
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1370,7 +1370,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="56"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="10"/>
+      <c r="P12" s="51"/>
       <c r="T12" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">

--- a/src/docs/Levels.xlsx
+++ b/src/docs/Levels.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\apenkooi\codegarden\src\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\GitRepos\CodeGarden\codegarden\src\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World 1" sheetId="1" r:id="rId1"/>
+    <sheet name="World 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -23,8 +24,258 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Elmer Jacobs</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9BF03D82-C6D2-41CF-A13D-2575C4DD9922}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elmer Jacobs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1-1: desert_basics</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{70E65942-D31D-4FC0-A167-E002975900B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elmer Jacobs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1-5: desert_recursion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{EBC5EAC2-52EC-49E0-8136-11BBF8AF5246}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elmer Jacobs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1-9: desert_twin_cactuses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{555E7400-ED3A-496C-B068-763FCF7B103A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elmer Jacobs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1-4: desert_mushroom_book</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{CE4E6B87-7724-4F64-8BFA-D51277828F39}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elmer Jacobs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1-3: desert_mushroom_tutorial</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{C60B86E1-BC90-4694-8FDE-02D0E045D15F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elmer Jacobs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1-6: desert_sharing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{65FE05D1-B938-4753-AF0C-301446366A26}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elmer Jacobs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1-8: desert_delay</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{6AA305BF-7ABC-4D62-A8F2-CFD6F0141BB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elmer Jacobs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1-10: desert_finale</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{4C0DDD35-FB46-44F1-8704-7510F2406DF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elmer Jacobs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1-7: desert_no_cactus_hugging</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K18" authorId="0" shapeId="0" xr:uid="{7A57B6B1-2A97-4F79-9D7A-6246CEF90DC0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Elmer Jacobs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1-2: desert_simple_readonly</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
   <si>
     <t>Water</t>
   </si>
@@ -58,18 +309,33 @@
   <si>
     <t>&lt;</t>
   </si>
+  <si>
+    <t>Shroom</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Lib</t>
+  </si>
+  <si>
+    <t>Cactus</t>
+  </si>
+  <si>
+    <t>ROCK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,20 +479,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,12 +722,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.24994659260841701"/>
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -585,17 +875,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -634,23 +913,360 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
       </right>
       <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -693,96 +1309,164 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="17">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="16"/>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="17">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="47" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="13" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="47" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="47" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="47" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="47" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="47" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="47" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="16" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="47" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="50" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="17" xfId="52" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="47" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="50" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="47" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="48" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="47" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="47" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="47" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="48" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="47" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="52" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="48" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="47" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="47" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="17" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="51" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="50" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="50" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="48" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="15" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="48" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="48" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="53" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="17" xfId="48" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="14" xfId="50" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="16" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="47" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="16" xfId="48" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="47" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="50" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="51" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="10" xfId="51" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="50" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="14" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="50" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="50" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="53" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="12" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="13" xfId="51" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="50" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="50" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="16" xfId="51" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="51" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" xfId="53"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="47">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="17" xfId="52">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="54">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="55">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="16" xfId="48"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="54" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="55" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="47" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="20" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="21" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="22" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="23" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="16" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="24" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="25" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="26" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="27" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="28" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="29" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="30" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="31" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="32" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="33" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="20" xfId="52" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="17" xfId="52" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="34" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="17" xfId="52" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="35" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="52" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="27" xfId="52" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="36" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="19" xfId="52" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="23" xfId="52" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="37" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="38" xfId="47" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="39" xfId="48" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="56">
     <cellStyle name="20% - Accent1" xfId="24" builtinId="30" hidden="1"/>
     <cellStyle name="20% - Accent2" xfId="28" builtinId="34" hidden="1"/>
     <cellStyle name="20% - Accent3" xfId="32" builtinId="38" hidden="1"/>
@@ -814,29 +1498,31 @@
     <cellStyle name="Comma [0]" xfId="2" builtinId="6" hidden="1"/>
     <cellStyle name="Currency" xfId="3" builtinId="4" hidden="1"/>
     <cellStyle name="Currency [0]" xfId="4" builtinId="7" hidden="1"/>
-    <cellStyle name="Desert" xfId="47"/>
+    <cellStyle name="Desert" xfId="47" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="Explanatory Text" xfId="21" builtinId="53" hidden="1"/>
     <cellStyle name="Good" xfId="11" builtinId="26" hidden="1"/>
+    <cellStyle name="Grass" xfId="55" xr:uid="{60A4D571-8A4F-461D-B28B-C9094E860974}"/>
     <cellStyle name="Heading 1" xfId="7" builtinId="16" hidden="1"/>
     <cellStyle name="Heading 2" xfId="8" builtinId="17" hidden="1"/>
     <cellStyle name="Heading 3" xfId="9" builtinId="18" hidden="1"/>
     <cellStyle name="Heading 4" xfId="10" builtinId="19" hidden="1"/>
-    <cellStyle name="House" xfId="50"/>
+    <cellStyle name="House" xfId="50" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Input" xfId="14" builtinId="20" hidden="1"/>
-    <cellStyle name="Library" xfId="53"/>
+    <cellStyle name="Library" xfId="53" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Linked Cell" xfId="17" builtinId="24" hidden="1"/>
-    <cellStyle name="Mushroom" xfId="51"/>
+    <cellStyle name="Mushroom" xfId="51" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Neutral" xfId="13" builtinId="28" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="20" builtinId="10" hidden="1"/>
     <cellStyle name="Output" xfId="15" builtinId="21" hidden="1"/>
     <cellStyle name="Percent" xfId="5" builtinId="5" hidden="1"/>
-    <cellStyle name="Rock" xfId="52"/>
+    <cellStyle name="Rock" xfId="52" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Swamp" xfId="54" xr:uid="{C4545AA4-49E0-43D3-9B05-F8494AC9D049}"/>
     <cellStyle name="Title" xfId="6" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="22" builtinId="25" hidden="1"/>
-    <cellStyle name="Tree" xfId="49"/>
+    <cellStyle name="Tree" xfId="49" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
     <cellStyle name="Warning Text" xfId="19" builtinId="11" hidden="1"/>
-    <cellStyle name="Water" xfId="48"/>
+    <cellStyle name="Water" xfId="48" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1152,265 +1838,580 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="9.140625" style="17" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="17"/>
-    <col min="9" max="9" width="9.140625" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="9.140625" style="8" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" style="8"/>
+    <col min="9" max="9" width="9.140625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="28" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="34"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="28" t="s">
+      <c r="P4" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="33"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="34"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="41"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="32"/>
+      <c r="P6" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="34"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="42"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="B9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="29"/>
+      <c r="P9" s="43"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="34"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="47" t="s">
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="34"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F13" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="7"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="52"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="54" t="s">
+      <c r="L14" s="36"/>
+      <c r="M14" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="41"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F15" s="31"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="30"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="34"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="33"/>
+      <c r="M20" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="N20" s="33"/>
+      <c r="O20" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="49" t="s">
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="F22" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="38" t="s">
+      <c r="G22" s="37"/>
+      <c r="H22" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="51"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="J22" s="41"/>
+      <c r="K22" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>9</v>
-      </c>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="41"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M24" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0828A6-B8F4-4341-8934-5152E630F26A}">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="18"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>